--- a/modelos/OBACER4421149/OBACER4421149_Sell in_metricas.xlsx
+++ b/modelos/OBACER4421149/OBACER4421149_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>159.2192435337743</v>
+        <v>161.892234359444</v>
       </c>
       <c r="C2" t="n">
-        <v>8.25609612285248</v>
+        <v>9.232598126449645</v>
       </c>
       <c r="D2" t="n">
-        <v>310.7569849527821</v>
+        <v>307.1574455207493</v>
       </c>
       <c r="E2" t="n">
         <v>140</v>
@@ -496,13 +496,13 @@
         <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>11.9722465190391</v>
+        <v>7.313257522895253</v>
       </c>
       <c r="C3" t="n">
-        <v>-134.1866907260649</v>
+        <v>-145.7723470394083</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0635434070902</v>
+        <v>156.8953327801789</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -516,13 +516,13 @@
         <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>43.16672386802328</v>
+        <v>26.75785480946872</v>
       </c>
       <c r="C4" t="n">
-        <v>-110.1549357179175</v>
+        <v>-116.5488548950194</v>
       </c>
       <c r="D4" t="n">
-        <v>197.7390938928504</v>
+        <v>186.6216534917498</v>
       </c>
       <c r="E4" t="n">
         <v>80</v>
@@ -536,13 +536,13 @@
         <v>44873</v>
       </c>
       <c r="B5" t="n">
-        <v>110.1233077457349</v>
+        <v>107.7339981420663</v>
       </c>
       <c r="C5" t="n">
-        <v>-40.40185250626887</v>
+        <v>-41.65535526555066</v>
       </c>
       <c r="D5" t="n">
-        <v>257.244745196656</v>
+        <v>254.8496829625155</v>
       </c>
       <c r="E5" t="n">
         <v>210</v>
@@ -556,13 +556,13 @@
         <v>44880</v>
       </c>
       <c r="B6" t="n">
-        <v>134.4862004101825</v>
+        <v>140.2382898674526</v>
       </c>
       <c r="C6" t="n">
-        <v>-16.31510938730796</v>
+        <v>-11.57903208689851</v>
       </c>
       <c r="D6" t="n">
-        <v>273.4908094575389</v>
+        <v>290.9650556647711</v>
       </c>
       <c r="E6" t="n">
         <v>220</v>
@@ -576,13 +576,13 @@
         <v>44887</v>
       </c>
       <c r="B7" t="n">
-        <v>166.5806567138079</v>
+        <v>170.5182992765798</v>
       </c>
       <c r="C7" t="n">
-        <v>28.11171590235402</v>
+        <v>27.73398201498622</v>
       </c>
       <c r="D7" t="n">
-        <v>314.6135678911368</v>
+        <v>319.4549931175125</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
@@ -596,13 +596,13 @@
         <v>44894</v>
       </c>
       <c r="B8" t="n">
-        <v>171.299857124401</v>
+        <v>167.6697338613931</v>
       </c>
       <c r="C8" t="n">
-        <v>23.31128549468108</v>
+        <v>27.65413322164368</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6805526731215</v>
+        <v>311.7869966909387</v>
       </c>
       <c r="E8" t="n">
         <v>120</v>
@@ -616,13 +616,13 @@
         <v>44897</v>
       </c>
       <c r="B9" t="n">
-        <v>88.89910519266402</v>
+        <v>78.04119252164942</v>
       </c>
       <c r="C9" t="n">
-        <v>-59.73118214922008</v>
+        <v>-69.65074796977368</v>
       </c>
       <c r="D9" t="n">
-        <v>241.018470924509</v>
+        <v>224.1457719472217</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -636,13 +636,13 @@
         <v>44901</v>
       </c>
       <c r="B10" t="n">
-        <v>148.118672594525</v>
+        <v>148.7446950088895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5722570103968471</v>
+        <v>7.870816359864894</v>
       </c>
       <c r="D10" t="n">
-        <v>305.6920186049607</v>
+        <v>299.5776736371313</v>
       </c>
       <c r="E10" t="n">
         <v>350</v>
@@ -656,13 +656,13 @@
         <v>44908</v>
       </c>
       <c r="B11" t="n">
-        <v>155.1522434258394</v>
+        <v>152.1289083383185</v>
       </c>
       <c r="C11" t="n">
-        <v>7.257834587126349</v>
+        <v>2.15330319172338</v>
       </c>
       <c r="D11" t="n">
-        <v>320.1115085184052</v>
+        <v>292.5196021539549</v>
       </c>
       <c r="E11" t="n">
         <v>140</v>
@@ -676,13 +676,13 @@
         <v>44915</v>
       </c>
       <c r="B12" t="n">
-        <v>134.5491390009445</v>
+        <v>140.041815606485</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.163546080405927</v>
+        <v>-12.38127044057148</v>
       </c>
       <c r="D12" t="n">
-        <v>291.3345998364805</v>
+        <v>284.0945931970044</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -696,13 +696,13 @@
         <v>44922</v>
       </c>
       <c r="B13" t="n">
-        <v>110.6123301008862</v>
+        <v>112.5760974219315</v>
       </c>
       <c r="C13" t="n">
-        <v>-40.60778978531877</v>
+        <v>-34.15842893958872</v>
       </c>
       <c r="D13" t="n">
-        <v>259.9241929956581</v>
+        <v>269.919531221891</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -716,13 +716,13 @@
         <v>44929</v>
       </c>
       <c r="B14" t="n">
-        <v>65.79689777980576</v>
+        <v>72.33162510268721</v>
       </c>
       <c r="C14" t="n">
-        <v>-71.57941255912688</v>
+        <v>-71.56305856600521</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4536946034146</v>
+        <v>217.6878522018937</v>
       </c>
       <c r="E14" t="n">
         <v>120</v>
@@ -736,13 +736,13 @@
         <v>44936</v>
       </c>
       <c r="B15" t="n">
-        <v>56.6055642346718</v>
+        <v>54.30851245021298</v>
       </c>
       <c r="C15" t="n">
-        <v>-105.3208777574686</v>
+        <v>-85.19663180692149</v>
       </c>
       <c r="D15" t="n">
-        <v>195.616617406595</v>
+        <v>203.4220754583171</v>
       </c>
       <c r="E15" t="n">
         <v>190</v>
@@ -753,79 +753,79 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B16" t="n">
-        <v>85.21410894092736</v>
+        <v>66.13554692132595</v>
       </c>
       <c r="C16" t="n">
-        <v>-54.50120659777827</v>
+        <v>-78.53040655638748</v>
       </c>
       <c r="D16" t="n">
-        <v>240.8851822182053</v>
+        <v>209.4253499396062</v>
       </c>
       <c r="E16" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>106.9442693476485</v>
+        <v>133.3349510732695</v>
       </c>
       <c r="C17" t="n">
-        <v>-36.01045098008595</v>
+        <v>-14.68942269665303</v>
       </c>
       <c r="D17" t="n">
-        <v>259.6505040356592</v>
+        <v>285.5921792342015</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B18" t="n">
-        <v>26.58642431178792</v>
+        <v>128.1765859150186</v>
       </c>
       <c r="C18" t="n">
-        <v>-124.0327376807245</v>
+        <v>-18.56682875722112</v>
       </c>
       <c r="D18" t="n">
-        <v>165.1148052668918</v>
+        <v>284.2613315547571</v>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B19" t="n">
-        <v>86.05354900345773</v>
+        <v>22.16452780049312</v>
       </c>
       <c r="C19" t="n">
-        <v>-57.19921535870862</v>
+        <v>-135.7167711770855</v>
       </c>
       <c r="D19" t="n">
-        <v>224.8418076520636</v>
+        <v>171.364181584289</v>
       </c>
       <c r="E19" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44957</v>
@@ -833,59 +833,59 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>69.7120849400945</v>
+        <v>87.33344195862112</v>
       </c>
       <c r="C20" t="n">
-        <v>-89.36134882503644</v>
+        <v>-51.35751368947201</v>
       </c>
       <c r="D20" t="n">
-        <v>221.3067639026567</v>
+        <v>230.8517320704748</v>
       </c>
       <c r="E20" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B21" t="n">
-        <v>-152.3538211151862</v>
+        <v>67.86231079874416</v>
       </c>
       <c r="C21" t="n">
-        <v>-293.5494033551754</v>
+        <v>-76.63070824115751</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.751931405326179</v>
+        <v>213.1195910110287</v>
       </c>
       <c r="E21" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>83.51914238839151</v>
+        <v>-135.7366086309497</v>
       </c>
       <c r="C22" t="n">
-        <v>-55.13341049836745</v>
+        <v>-291.1253111366235</v>
       </c>
       <c r="D22" t="n">
-        <v>224.9530027537872</v>
+        <v>10.79996532082752</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>44978</v>
@@ -893,39 +893,39 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>11.77396465841674</v>
+        <v>103.0945341321629</v>
       </c>
       <c r="C23" t="n">
-        <v>-140.5036401703015</v>
+        <v>-42.67497332194681</v>
       </c>
       <c r="D23" t="n">
-        <v>156.1741817480449</v>
+        <v>259.1748565360567</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B24" t="n">
-        <v>85.88818825189986</v>
+        <v>16.6938278553023</v>
       </c>
       <c r="C24" t="n">
-        <v>-59.3708647809684</v>
+        <v>-133.4330195696185</v>
       </c>
       <c r="D24" t="n">
-        <v>232.0454173557588</v>
+        <v>175.9412759329579</v>
       </c>
       <c r="E24" t="n">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44985</v>
@@ -933,201 +933,221 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>94.2616522987488</v>
+        <v>101.5795692206578</v>
       </c>
       <c r="C25" t="n">
-        <v>-51.87432879490409</v>
+        <v>-50.3522851011115</v>
       </c>
       <c r="D25" t="n">
-        <v>235.7187345811752</v>
+        <v>253.005298897672</v>
       </c>
       <c r="E25" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B26" t="n">
-        <v>61.72869079424005</v>
+        <v>104.6008965182451</v>
       </c>
       <c r="C26" t="n">
-        <v>-90.00461133686758</v>
+        <v>-51.39557804118948</v>
       </c>
       <c r="D26" t="n">
-        <v>205.4704142258089</v>
+        <v>258.3984001054162</v>
       </c>
       <c r="E26" t="n">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B27" t="n">
-        <v>88.16407850759109</v>
+        <v>64.59873761933007</v>
       </c>
       <c r="C27" t="n">
-        <v>-57.27560193642171</v>
+        <v>-82.03808218708302</v>
       </c>
       <c r="D27" t="n">
-        <v>234.4989085217641</v>
+        <v>213.7828259905521</v>
       </c>
       <c r="E27" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B28" t="n">
-        <v>176.7366517574686</v>
+        <v>80.71436833237665</v>
       </c>
       <c r="C28" t="n">
-        <v>20.50994385076631</v>
+        <v>-67.13670146043302</v>
       </c>
       <c r="D28" t="n">
-        <v>324.9766206330732</v>
+        <v>237.9535183844238</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B29" t="n">
-        <v>297.2080550591944</v>
+        <v>156.876619515997</v>
       </c>
       <c r="C29" t="n">
-        <v>150.7207810719258</v>
+        <v>9.988464327244184</v>
       </c>
       <c r="D29" t="n">
-        <v>437.7588790352655</v>
+        <v>306.4916957842387</v>
       </c>
       <c r="E29" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B30" t="n">
-        <v>372.3748904869864</v>
+        <v>279.2385452126088</v>
       </c>
       <c r="C30" t="n">
-        <v>224.0598524162906</v>
+        <v>131.582967377771</v>
       </c>
       <c r="D30" t="n">
-        <v>528.6782266744142</v>
+        <v>431.2257559474543</v>
       </c>
       <c r="E30" t="n">
-        <v>690</v>
+        <v>140</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B31" t="n">
-        <v>318.1536673191529</v>
+        <v>373.0881785560869</v>
       </c>
       <c r="C31" t="n">
-        <v>165.7464921750762</v>
+        <v>219.1664631253089</v>
       </c>
       <c r="D31" t="n">
-        <v>472.2953459103782</v>
+        <v>519.930913866655</v>
       </c>
       <c r="E31" t="n">
-        <v>500</v>
+        <v>690</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B32" t="n">
-        <v>347.9453147332004</v>
+        <v>330.7426326754467</v>
       </c>
       <c r="C32" t="n">
-        <v>203.155989562796</v>
+        <v>178.9087154039689</v>
       </c>
       <c r="D32" t="n">
-        <v>490.7223727994754</v>
+        <v>493.7342277514807</v>
       </c>
       <c r="E32" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B33" t="n">
-        <v>246.5226831122689</v>
+        <v>372.2132832891274</v>
       </c>
       <c r="C33" t="n">
-        <v>97.04661899166422</v>
+        <v>210.8901637614494</v>
       </c>
       <c r="D33" t="n">
-        <v>399.9030215951337</v>
+        <v>518.8337451336163</v>
       </c>
       <c r="E33" t="n">
-        <v>210</v>
+        <v>570</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B34" t="n">
+        <v>262.7839139549764</v>
+      </c>
+      <c r="C34" t="n">
+        <v>107.7199252107623</v>
+      </c>
+      <c r="D34" t="n">
+        <v>418.5866904419625</v>
+      </c>
+      <c r="E34" t="n">
+        <v>210</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B34" t="n">
-        <v>151.5008373788124</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-6.995988819714691</v>
-      </c>
-      <c r="D34" t="n">
-        <v>293.4162300887028</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="B35" t="n">
+        <v>150.2662513106229</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.502950305916119</v>
+      </c>
+      <c r="D35" t="n">
+        <v>312.4568500847867</v>
+      </c>
+      <c r="E35" t="n">
         <v>80</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F35" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1197,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4324.504572617488</v>
+        <v>4491.27099946513</v>
       </c>
       <c r="C2" t="n">
-        <v>65.76096541731643</v>
+        <v>67.01694561426334</v>
       </c>
       <c r="D2" t="n">
-        <v>51.84299808860902</v>
+        <v>54.08564925327161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5253199365125352</v>
+        <v>0.5612404341250012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5403049450263694</v>
+        <v>0.6744453517230125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8175626205044595</v>
+        <v>0.9012673408329275</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1223,22 +1243,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>12726.0494157601</v>
+        <v>11402.58350895616</v>
       </c>
       <c r="C3" t="n">
-        <v>112.8097930844663</v>
+        <v>106.7828802241078</v>
       </c>
       <c r="D3" t="n">
-        <v>87.23902808347232</v>
+        <v>85.34325301830991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5299021462994172</v>
+        <v>0.5723079102339088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3636926653616941</v>
+        <v>0.3385147346491067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7802191148581664</v>
+        <v>0.8968226090942646</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1249,25 +1269,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>18272.06799943836</v>
+        <v>24904.46226320338</v>
       </c>
       <c r="C4" t="n">
-        <v>135.1742135151463</v>
+        <v>157.8114769692096</v>
       </c>
       <c r="D4" t="n">
-        <v>103.0850228766829</v>
+        <v>114.0521679812329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5980934654875512</v>
+        <v>0.6287353088107152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4679647710599578</v>
+        <v>0.459292494846251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5935495388510658</v>
+        <v>0.6127285261590393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7307692307692312</v>
+        <v>0.7777777777777773</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACER4421149/OBACER4421149_Sell in_metricas.xlsx
+++ b/modelos/OBACER4421149/OBACER4421149_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>161.892234359444</v>
+        <v>155.3159030097754</v>
       </c>
       <c r="C2" t="n">
-        <v>9.232598126449645</v>
+        <v>-6.697994102818048</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1574455207493</v>
+        <v>310.3636798992013</v>
       </c>
       <c r="E2" t="n">
         <v>140</v>
@@ -496,13 +496,13 @@
         <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>7.313257522895253</v>
+        <v>87.31843180634937</v>
       </c>
       <c r="C3" t="n">
-        <v>-145.7723470394083</v>
+        <v>-69.87467381644379</v>
       </c>
       <c r="D3" t="n">
-        <v>156.8953327801789</v>
+        <v>241.1242032782504</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -516,13 +516,13 @@
         <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>26.75785480946872</v>
+        <v>10.01561226162583</v>
       </c>
       <c r="C4" t="n">
-        <v>-116.5488548950194</v>
+        <v>-144.7618315102111</v>
       </c>
       <c r="D4" t="n">
-        <v>186.6216534917498</v>
+        <v>172.4330574919636</v>
       </c>
       <c r="E4" t="n">
         <v>80</v>
@@ -536,13 +536,13 @@
         <v>44873</v>
       </c>
       <c r="B5" t="n">
-        <v>107.7339981420663</v>
+        <v>93.94700860472295</v>
       </c>
       <c r="C5" t="n">
-        <v>-41.65535526555066</v>
+        <v>-60.72899609981918</v>
       </c>
       <c r="D5" t="n">
-        <v>254.8496829625155</v>
+        <v>242.821010390076</v>
       </c>
       <c r="E5" t="n">
         <v>210</v>
@@ -556,13 +556,13 @@
         <v>44880</v>
       </c>
       <c r="B6" t="n">
-        <v>140.2382898674526</v>
+        <v>123.741410396603</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.57903208689851</v>
+        <v>-31.28369797004441</v>
       </c>
       <c r="D6" t="n">
-        <v>290.9650556647711</v>
+        <v>267.4011737873762</v>
       </c>
       <c r="E6" t="n">
         <v>220</v>
@@ -576,13 +576,13 @@
         <v>44887</v>
       </c>
       <c r="B7" t="n">
-        <v>170.5182992765798</v>
+        <v>156.7303036288981</v>
       </c>
       <c r="C7" t="n">
-        <v>27.73398201498622</v>
+        <v>12.58253095238807</v>
       </c>
       <c r="D7" t="n">
-        <v>319.4549931175125</v>
+        <v>321.3259964144933</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
@@ -596,13 +596,13 @@
         <v>44894</v>
       </c>
       <c r="B8" t="n">
-        <v>167.6697338613931</v>
+        <v>151.5587384397309</v>
       </c>
       <c r="C8" t="n">
-        <v>27.65413322164368</v>
+        <v>1.715199759181566</v>
       </c>
       <c r="D8" t="n">
-        <v>311.7869966909387</v>
+        <v>302.8249634289362</v>
       </c>
       <c r="E8" t="n">
         <v>120</v>
@@ -616,13 +616,13 @@
         <v>44897</v>
       </c>
       <c r="B9" t="n">
-        <v>78.04119252164942</v>
+        <v>60.99952464962276</v>
       </c>
       <c r="C9" t="n">
-        <v>-69.65074796977368</v>
+        <v>-91.62988024714748</v>
       </c>
       <c r="D9" t="n">
-        <v>224.1457719472217</v>
+        <v>211.0289447002846</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -636,13 +636,13 @@
         <v>44901</v>
       </c>
       <c r="B10" t="n">
-        <v>148.7446950088895</v>
+        <v>132.2320359543617</v>
       </c>
       <c r="C10" t="n">
-        <v>7.870816359864894</v>
+        <v>-27.31061552663473</v>
       </c>
       <c r="D10" t="n">
-        <v>299.5776736371313</v>
+        <v>263.5386022771433</v>
       </c>
       <c r="E10" t="n">
         <v>350</v>
@@ -656,13 +656,13 @@
         <v>44908</v>
       </c>
       <c r="B11" t="n">
-        <v>152.1289083383185</v>
+        <v>140.920370330052</v>
       </c>
       <c r="C11" t="n">
-        <v>2.15330319172338</v>
+        <v>-12.41276841701836</v>
       </c>
       <c r="D11" t="n">
-        <v>292.5196021539549</v>
+        <v>291.6483504264976</v>
       </c>
       <c r="E11" t="n">
         <v>140</v>
@@ -676,13 +676,13 @@
         <v>44915</v>
       </c>
       <c r="B12" t="n">
-        <v>140.041815606485</v>
+        <v>128.3705915492754</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.38127044057148</v>
+        <v>-38.41623098918191</v>
       </c>
       <c r="D12" t="n">
-        <v>284.0945931970044</v>
+        <v>286.756658876416</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -696,13 +696,13 @@
         <v>44922</v>
       </c>
       <c r="B13" t="n">
-        <v>112.5760974219315</v>
+        <v>110.0925853213464</v>
       </c>
       <c r="C13" t="n">
-        <v>-34.15842893958872</v>
+        <v>-46.26630894349597</v>
       </c>
       <c r="D13" t="n">
-        <v>269.919531221891</v>
+        <v>260.2280109277715</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -716,13 +716,13 @@
         <v>44929</v>
       </c>
       <c r="B14" t="n">
-        <v>72.33162510268721</v>
+        <v>64.72984759430909</v>
       </c>
       <c r="C14" t="n">
-        <v>-71.56305856600521</v>
+        <v>-95.5151796125067</v>
       </c>
       <c r="D14" t="n">
-        <v>217.6878522018937</v>
+        <v>215.4111402896417</v>
       </c>
       <c r="E14" t="n">
         <v>120</v>
@@ -736,13 +736,13 @@
         <v>44936</v>
       </c>
       <c r="B15" t="n">
-        <v>54.30851245021298</v>
+        <v>41.95681016467785</v>
       </c>
       <c r="C15" t="n">
-        <v>-85.19663180692149</v>
+        <v>-105.6879065180721</v>
       </c>
       <c r="D15" t="n">
-        <v>203.4220754583171</v>
+        <v>193.0042844580901</v>
       </c>
       <c r="E15" t="n">
         <v>190</v>
@@ -756,13 +756,13 @@
         <v>44943</v>
       </c>
       <c r="B16" t="n">
-        <v>66.13554692132595</v>
+        <v>46.81833480184982</v>
       </c>
       <c r="C16" t="n">
-        <v>-78.53040655638748</v>
+        <v>-104.6801830274898</v>
       </c>
       <c r="D16" t="n">
-        <v>209.4253499396062</v>
+        <v>201.8977384876203</v>
       </c>
       <c r="E16" t="n">
         <v>550</v>
@@ -776,13 +776,13 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>133.3349510732695</v>
+        <v>123.934045252732</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.68942269665303</v>
+        <v>-33.02401249025586</v>
       </c>
       <c r="D17" t="n">
-        <v>285.5921792342015</v>
+        <v>271.6284113040928</v>
       </c>
       <c r="E17" t="n">
         <v>250</v>
@@ -796,13 +796,13 @@
         <v>44957</v>
       </c>
       <c r="B18" t="n">
-        <v>128.1765859150186</v>
+        <v>122.3437189301862</v>
       </c>
       <c r="C18" t="n">
-        <v>-18.56682875722112</v>
+        <v>-42.54045780177347</v>
       </c>
       <c r="D18" t="n">
-        <v>284.2613315547571</v>
+        <v>278.6108581461592</v>
       </c>
       <c r="E18" t="n">
         <v>50</v>
@@ -816,13 +816,13 @@
         <v>44960</v>
       </c>
       <c r="B19" t="n">
-        <v>22.16452780049312</v>
+        <v>8.084854050214124</v>
       </c>
       <c r="C19" t="n">
-        <v>-135.7167711770855</v>
+        <v>-134.8797348937834</v>
       </c>
       <c r="D19" t="n">
-        <v>171.364181584289</v>
+        <v>162.0587455573238</v>
       </c>
       <c r="E19" t="n">
         <v>70</v>
@@ -836,13 +836,13 @@
         <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>87.33344195862112</v>
+        <v>69.20559449964459</v>
       </c>
       <c r="C20" t="n">
-        <v>-51.35751368947201</v>
+        <v>-91.11119466432289</v>
       </c>
       <c r="D20" t="n">
-        <v>230.8517320704748</v>
+        <v>216.5332798498933</v>
       </c>
       <c r="E20" t="n">
         <v>110</v>
@@ -856,13 +856,13 @@
         <v>44971</v>
       </c>
       <c r="B21" t="n">
-        <v>67.86231079874416</v>
+        <v>50.47573473472069</v>
       </c>
       <c r="C21" t="n">
-        <v>-76.63070824115751</v>
+        <v>-100.5327957858496</v>
       </c>
       <c r="D21" t="n">
-        <v>213.1195910110287</v>
+        <v>208.6831626546135</v>
       </c>
       <c r="E21" t="n">
         <v>170</v>
@@ -876,13 +876,13 @@
         <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>-135.7366086309497</v>
+        <v>-145.8880435172074</v>
       </c>
       <c r="C22" t="n">
-        <v>-291.1253111366235</v>
+        <v>-294.0514377894254</v>
       </c>
       <c r="D22" t="n">
-        <v>10.79996532082752</v>
+        <v>12.76263626233869</v>
       </c>
       <c r="E22" t="n">
         <v>250</v>
@@ -896,13 +896,13 @@
         <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>103.0945341321629</v>
+        <v>111.3115145903351</v>
       </c>
       <c r="C23" t="n">
-        <v>-42.67497332194681</v>
+        <v>-38.37333392947411</v>
       </c>
       <c r="D23" t="n">
-        <v>259.1748565360567</v>
+        <v>259.3266987589818</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -916,13 +916,13 @@
         <v>44988</v>
       </c>
       <c r="B24" t="n">
-        <v>16.6938278553023</v>
+        <v>32.72508927012841</v>
       </c>
       <c r="C24" t="n">
-        <v>-133.4330195696185</v>
+        <v>-132.4999808540177</v>
       </c>
       <c r="D24" t="n">
-        <v>175.9412759329579</v>
+        <v>179.4223949896408</v>
       </c>
       <c r="E24" t="n">
         <v>130</v>
@@ -936,13 +936,13 @@
         <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>101.5795692206578</v>
+        <v>130.9158768290853</v>
       </c>
       <c r="C25" t="n">
-        <v>-50.3522851011115</v>
+        <v>-16.71948371923763</v>
       </c>
       <c r="D25" t="n">
-        <v>253.005298897672</v>
+        <v>275.3336796815781</v>
       </c>
       <c r="E25" t="n">
         <v>380</v>
@@ -956,13 +956,13 @@
         <v>44999</v>
       </c>
       <c r="B26" t="n">
-        <v>104.6008965182451</v>
+        <v>126.4333070560099</v>
       </c>
       <c r="C26" t="n">
-        <v>-51.39557804118948</v>
+        <v>-20.58431530552385</v>
       </c>
       <c r="D26" t="n">
-        <v>258.3984001054162</v>
+        <v>282.529322038626</v>
       </c>
       <c r="E26" t="n">
         <v>140</v>
@@ -976,13 +976,13 @@
         <v>45006</v>
       </c>
       <c r="B27" t="n">
-        <v>64.59873761933007</v>
+        <v>76.34604300926974</v>
       </c>
       <c r="C27" t="n">
-        <v>-82.03808218708302</v>
+        <v>-77.57180842217623</v>
       </c>
       <c r="D27" t="n">
-        <v>213.7828259905521</v>
+        <v>242.7947691563122</v>
       </c>
       <c r="E27" t="n">
         <v>320</v>
@@ -996,13 +996,13 @@
         <v>45013</v>
       </c>
       <c r="B28" t="n">
-        <v>80.71436833237665</v>
+        <v>59.67981924274546</v>
       </c>
       <c r="C28" t="n">
-        <v>-67.13670146043302</v>
+        <v>-84.45146350155957</v>
       </c>
       <c r="D28" t="n">
-        <v>237.9535183844238</v>
+        <v>211.9492340895567</v>
       </c>
       <c r="E28" t="n">
         <v>90</v>
@@ -1016,13 +1016,13 @@
         <v>45020</v>
       </c>
       <c r="B29" t="n">
-        <v>156.876619515997</v>
+        <v>142.8034266033931</v>
       </c>
       <c r="C29" t="n">
-        <v>9.988464327244184</v>
+        <v>-24.93985926322871</v>
       </c>
       <c r="D29" t="n">
-        <v>306.4916957842387</v>
+        <v>295.1967797920185</v>
       </c>
       <c r="E29" t="n">
         <v>110</v>
@@ -1036,13 +1036,13 @@
         <v>45027</v>
       </c>
       <c r="B30" t="n">
-        <v>279.2385452126088</v>
+        <v>274.0169850813091</v>
       </c>
       <c r="C30" t="n">
-        <v>131.582967377771</v>
+        <v>114.0883902999185</v>
       </c>
       <c r="D30" t="n">
-        <v>431.2257559474543</v>
+        <v>439.1980372111781</v>
       </c>
       <c r="E30" t="n">
         <v>140</v>
@@ -1056,13 +1056,13 @@
         <v>45034</v>
       </c>
       <c r="B31" t="n">
-        <v>373.0881785560869</v>
+        <v>378.5244069429473</v>
       </c>
       <c r="C31" t="n">
-        <v>219.1664631253089</v>
+        <v>221.0476580983775</v>
       </c>
       <c r="D31" t="n">
-        <v>519.930913866655</v>
+        <v>543.7874059833257</v>
       </c>
       <c r="E31" t="n">
         <v>690</v>
@@ -1076,13 +1076,13 @@
         <v>45040</v>
       </c>
       <c r="B32" t="n">
-        <v>330.7426326754467</v>
+        <v>395.5973672129049</v>
       </c>
       <c r="C32" t="n">
-        <v>178.9087154039689</v>
+        <v>240.1029962444238</v>
       </c>
       <c r="D32" t="n">
-        <v>493.7342277514807</v>
+        <v>545.8099145433076</v>
       </c>
       <c r="E32" t="n">
         <v>500</v>
@@ -1096,13 +1096,13 @@
         <v>45048</v>
       </c>
       <c r="B33" t="n">
-        <v>372.2132832891274</v>
+        <v>361.5110215646756</v>
       </c>
       <c r="C33" t="n">
-        <v>210.8901637614494</v>
+        <v>201.3517306280529</v>
       </c>
       <c r="D33" t="n">
-        <v>518.8337451336163</v>
+        <v>518.8686834457984</v>
       </c>
       <c r="E33" t="n">
         <v>570</v>
@@ -1116,13 +1116,13 @@
         <v>45055</v>
       </c>
       <c r="B34" t="n">
-        <v>262.7839139549764</v>
+        <v>239.872612439515</v>
       </c>
       <c r="C34" t="n">
-        <v>107.7199252107623</v>
+        <v>82.76145930295102</v>
       </c>
       <c r="D34" t="n">
-        <v>418.5866904419625</v>
+        <v>384.0291180068675</v>
       </c>
       <c r="E34" t="n">
         <v>210</v>
@@ -1136,13 +1136,13 @@
         <v>45062</v>
       </c>
       <c r="B35" t="n">
-        <v>150.2662513106229</v>
+        <v>142.8937918567959</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.502950305916119</v>
+        <v>-9.076729456594997</v>
       </c>
       <c r="D35" t="n">
-        <v>312.4568500847867</v>
+        <v>306.2529247132115</v>
       </c>
       <c r="E35" t="n">
         <v>80</v>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4491.27099946513</v>
+        <v>4638.681536535791</v>
       </c>
       <c r="C2" t="n">
-        <v>67.01694561426334</v>
+        <v>68.10786692105245</v>
       </c>
       <c r="D2" t="n">
-        <v>54.08564925327161</v>
+        <v>62.04372994210221</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5612404341250012</v>
+        <v>0.6862703544205674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6744453517230125</v>
+        <v>0.8115366954028063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9012673408329275</v>
+        <v>1.151466583388918</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1243,25 +1243,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>11402.58350895616</v>
+        <v>5925.875086008314</v>
       </c>
       <c r="C3" t="n">
-        <v>106.7828802241078</v>
+        <v>76.97970567629051</v>
       </c>
       <c r="D3" t="n">
-        <v>85.34325301830991</v>
+        <v>71.25493151184888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5723079102339088</v>
+        <v>0.6926788050511637</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3385147346491067</v>
+        <v>0.2375059418797155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8968226090942646</v>
+        <v>0.709307124119829</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1269,22 +1269,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>24904.46226320338</v>
+        <v>25506.59389071349</v>
       </c>
       <c r="C4" t="n">
-        <v>157.8114769692096</v>
+        <v>159.7078391648747</v>
       </c>
       <c r="D4" t="n">
-        <v>114.0521679812329</v>
+        <v>114.5303199212764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6287353088107152</v>
+        <v>0.6304776844459017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.459292494846251</v>
+        <v>0.4605846033807576</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6127285261590393</v>
+        <v>0.6353319740252843</v>
       </c>
       <c r="H4" t="n">
         <v>0.7777777777777773</v>

--- a/modelos/OBACER4421149/OBACER4421149_Sell in_metricas.xlsx
+++ b/modelos/OBACER4421149/OBACER4421149_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44859</v>
       </c>
       <c r="B2" t="n">
-        <v>155.3159030097754</v>
+        <v>161.137826073575</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.697994102818048</v>
+        <v>15.84640504255383</v>
       </c>
       <c r="D2" t="n">
-        <v>310.3636798992013</v>
+        <v>304.8458916786742</v>
       </c>
       <c r="E2" t="n">
         <v>140</v>
@@ -496,13 +496,13 @@
         <v>44865</v>
       </c>
       <c r="B3" t="n">
-        <v>87.31843180634937</v>
+        <v>19.13814000925142</v>
       </c>
       <c r="C3" t="n">
-        <v>-69.87467381644379</v>
+        <v>-124.2986385669703</v>
       </c>
       <c r="D3" t="n">
-        <v>241.1242032782504</v>
+        <v>163.8156680284746</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -516,13 +516,13 @@
         <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>10.01561226162583</v>
+        <v>24.1286261156727</v>
       </c>
       <c r="C4" t="n">
-        <v>-144.7618315102111</v>
+        <v>-129.9539767265634</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4330574919636</v>
+        <v>168.8757507986898</v>
       </c>
       <c r="E4" t="n">
         <v>80</v>
@@ -536,13 +536,13 @@
         <v>44873</v>
       </c>
       <c r="B5" t="n">
-        <v>93.94700860472295</v>
+        <v>104.2210284709222</v>
       </c>
       <c r="C5" t="n">
-        <v>-60.72899609981918</v>
+        <v>-43.87020684569936</v>
       </c>
       <c r="D5" t="n">
-        <v>242.821010390076</v>
+        <v>250.1490000853909</v>
       </c>
       <c r="E5" t="n">
         <v>210</v>
@@ -556,13 +556,13 @@
         <v>44880</v>
       </c>
       <c r="B6" t="n">
-        <v>123.741410396603</v>
+        <v>129.0151270687255</v>
       </c>
       <c r="C6" t="n">
-        <v>-31.28369797004441</v>
+        <v>-19.53326874729411</v>
       </c>
       <c r="D6" t="n">
-        <v>267.4011737873762</v>
+        <v>283.1021595400784</v>
       </c>
       <c r="E6" t="n">
         <v>220</v>
@@ -576,13 +576,13 @@
         <v>44887</v>
       </c>
       <c r="B7" t="n">
-        <v>156.7303036288981</v>
+        <v>162.9049177366432</v>
       </c>
       <c r="C7" t="n">
-        <v>12.58253095238807</v>
+        <v>22.87729242607444</v>
       </c>
       <c r="D7" t="n">
-        <v>321.3259964144933</v>
+        <v>318.661917681125</v>
       </c>
       <c r="E7" t="n">
         <v>210</v>
@@ -596,13 +596,13 @@
         <v>44894</v>
       </c>
       <c r="B8" t="n">
-        <v>151.5587384397309</v>
+        <v>174.0878527990552</v>
       </c>
       <c r="C8" t="n">
-        <v>1.715199759181566</v>
+        <v>28.68973627532312</v>
       </c>
       <c r="D8" t="n">
-        <v>302.8249634289362</v>
+        <v>317.5634873789551</v>
       </c>
       <c r="E8" t="n">
         <v>120</v>
@@ -616,13 +616,13 @@
         <v>44897</v>
       </c>
       <c r="B9" t="n">
-        <v>60.99952464962276</v>
+        <v>76.18869786414655</v>
       </c>
       <c r="C9" t="n">
-        <v>-91.62988024714748</v>
+        <v>-68.6631062128755</v>
       </c>
       <c r="D9" t="n">
-        <v>211.0289447002846</v>
+        <v>220.253146095624</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -636,13 +636,13 @@
         <v>44901</v>
       </c>
       <c r="B10" t="n">
-        <v>132.2320359543617</v>
+        <v>148.2493721952289</v>
       </c>
       <c r="C10" t="n">
-        <v>-27.31061552663473</v>
+        <v>3.804518595241389</v>
       </c>
       <c r="D10" t="n">
-        <v>263.5386022771433</v>
+        <v>305.6861664182596</v>
       </c>
       <c r="E10" t="n">
         <v>350</v>
@@ -656,13 +656,13 @@
         <v>44908</v>
       </c>
       <c r="B11" t="n">
-        <v>140.920370330052</v>
+        <v>144.7863344722074</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.41276841701836</v>
+        <v>12.07751580749811</v>
       </c>
       <c r="D11" t="n">
-        <v>291.6483504264976</v>
+        <v>283.4986611786426</v>
       </c>
       <c r="E11" t="n">
         <v>140</v>
@@ -676,13 +676,13 @@
         <v>44915</v>
       </c>
       <c r="B12" t="n">
-        <v>128.3705915492754</v>
+        <v>135.1170525213356</v>
       </c>
       <c r="C12" t="n">
-        <v>-38.41623098918191</v>
+        <v>-9.718286142498345</v>
       </c>
       <c r="D12" t="n">
-        <v>286.756658876416</v>
+        <v>271.744286764966</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -696,13 +696,13 @@
         <v>44922</v>
       </c>
       <c r="B13" t="n">
-        <v>110.0925853213464</v>
+        <v>108.7207662694051</v>
       </c>
       <c r="C13" t="n">
-        <v>-46.26630894349597</v>
+        <v>-28.28718504499945</v>
       </c>
       <c r="D13" t="n">
-        <v>260.2280109277715</v>
+        <v>250.4394704249917</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -716,13 +716,13 @@
         <v>44929</v>
       </c>
       <c r="B14" t="n">
-        <v>64.72984759430909</v>
+        <v>70.39062555797</v>
       </c>
       <c r="C14" t="n">
-        <v>-95.5151796125067</v>
+        <v>-68.45523833660508</v>
       </c>
       <c r="D14" t="n">
-        <v>215.4111402896417</v>
+        <v>218.3104272037665</v>
       </c>
       <c r="E14" t="n">
         <v>120</v>
@@ -736,13 +736,13 @@
         <v>44936</v>
       </c>
       <c r="B15" t="n">
-        <v>41.95681016467785</v>
+        <v>56.62710536307621</v>
       </c>
       <c r="C15" t="n">
-        <v>-105.6879065180721</v>
+        <v>-87.44207222135095</v>
       </c>
       <c r="D15" t="n">
-        <v>193.0042844580901</v>
+        <v>213.2440860677989</v>
       </c>
       <c r="E15" t="n">
         <v>190</v>
@@ -756,13 +756,13 @@
         <v>44943</v>
       </c>
       <c r="B16" t="n">
-        <v>46.81833480184982</v>
+        <v>64.36984432512607</v>
       </c>
       <c r="C16" t="n">
-        <v>-104.6801830274898</v>
+        <v>-76.9010292034619</v>
       </c>
       <c r="D16" t="n">
-        <v>201.8977384876203</v>
+        <v>201.007695863284</v>
       </c>
       <c r="E16" t="n">
         <v>550</v>
@@ -776,13 +776,13 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>123.934045252732</v>
+        <v>131.3765911296176</v>
       </c>
       <c r="C17" t="n">
-        <v>-33.02401249025586</v>
+        <v>-15.89074547460875</v>
       </c>
       <c r="D17" t="n">
-        <v>271.6284113040928</v>
+        <v>288.7249410795397</v>
       </c>
       <c r="E17" t="n">
         <v>250</v>
@@ -796,13 +796,13 @@
         <v>44957</v>
       </c>
       <c r="B18" t="n">
-        <v>122.3437189301862</v>
+        <v>129.2505949152111</v>
       </c>
       <c r="C18" t="n">
-        <v>-42.54045780177347</v>
+        <v>-7.487732072446686</v>
       </c>
       <c r="D18" t="n">
-        <v>278.6108581461592</v>
+        <v>286.4349910229468</v>
       </c>
       <c r="E18" t="n">
         <v>50</v>
@@ -816,13 +816,13 @@
         <v>44960</v>
       </c>
       <c r="B19" t="n">
-        <v>8.084854050214124</v>
+        <v>15.07974636061386</v>
       </c>
       <c r="C19" t="n">
-        <v>-134.8797348937834</v>
+        <v>-128.8737055944299</v>
       </c>
       <c r="D19" t="n">
-        <v>162.0587455573238</v>
+        <v>166.1936405048148</v>
       </c>
       <c r="E19" t="n">
         <v>70</v>
@@ -836,13 +836,13 @@
         <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>69.20559449964459</v>
+        <v>82.57923573432957</v>
       </c>
       <c r="C20" t="n">
-        <v>-91.11119466432289</v>
+        <v>-57.70416268927967</v>
       </c>
       <c r="D20" t="n">
-        <v>216.5332798498933</v>
+        <v>236.2776751985517</v>
       </c>
       <c r="E20" t="n">
         <v>110</v>
@@ -856,13 +856,13 @@
         <v>44971</v>
       </c>
       <c r="B21" t="n">
-        <v>50.47573473472069</v>
+        <v>68.48428381832136</v>
       </c>
       <c r="C21" t="n">
-        <v>-100.5327957858496</v>
+        <v>-83.42409526668433</v>
       </c>
       <c r="D21" t="n">
-        <v>208.6831626546135</v>
+        <v>224.3445672729988</v>
       </c>
       <c r="E21" t="n">
         <v>170</v>
@@ -876,13 +876,13 @@
         <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>-145.8880435172074</v>
+        <v>-142.3747022194528</v>
       </c>
       <c r="C22" t="n">
-        <v>-294.0514377894254</v>
+        <v>-294.7059918074054</v>
       </c>
       <c r="D22" t="n">
-        <v>12.76263626233869</v>
+        <v>4.790631904964712</v>
       </c>
       <c r="E22" t="n">
         <v>250</v>
@@ -896,13 +896,13 @@
         <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>111.3115145903351</v>
+        <v>97.7485822950886</v>
       </c>
       <c r="C23" t="n">
-        <v>-38.37333392947411</v>
+        <v>-52.68776599448453</v>
       </c>
       <c r="D23" t="n">
-        <v>259.3266987589818</v>
+        <v>237.653539608283</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -916,13 +916,13 @@
         <v>44988</v>
       </c>
       <c r="B24" t="n">
-        <v>32.72508927012841</v>
+        <v>7.237400916978345</v>
       </c>
       <c r="C24" t="n">
-        <v>-132.4999808540177</v>
+        <v>-140.5523943810053</v>
       </c>
       <c r="D24" t="n">
-        <v>179.4223949896408</v>
+        <v>154.1339043781076</v>
       </c>
       <c r="E24" t="n">
         <v>130</v>
@@ -936,13 +936,13 @@
         <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>130.9158768290853</v>
+        <v>97.19970785972271</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.71948371923763</v>
+        <v>-53.12223629510276</v>
       </c>
       <c r="D25" t="n">
-        <v>275.3336796815781</v>
+        <v>243.8831412926067</v>
       </c>
       <c r="E25" t="n">
         <v>380</v>
@@ -956,13 +956,13 @@
         <v>44999</v>
       </c>
       <c r="B26" t="n">
-        <v>126.4333070560099</v>
+        <v>99.57877061650775</v>
       </c>
       <c r="C26" t="n">
-        <v>-20.58431530552385</v>
+        <v>-46.96980127082861</v>
       </c>
       <c r="D26" t="n">
-        <v>282.529322038626</v>
+        <v>254.2937685400677</v>
       </c>
       <c r="E26" t="n">
         <v>140</v>
@@ -976,13 +976,13 @@
         <v>45006</v>
       </c>
       <c r="B27" t="n">
-        <v>76.34604300926974</v>
+        <v>67.60704739460809</v>
       </c>
       <c r="C27" t="n">
-        <v>-77.57180842217623</v>
+        <v>-84.4243744925128</v>
       </c>
       <c r="D27" t="n">
-        <v>242.7947691563122</v>
+        <v>226.1676548112915</v>
       </c>
       <c r="E27" t="n">
         <v>320</v>
@@ -996,13 +996,13 @@
         <v>45013</v>
       </c>
       <c r="B28" t="n">
-        <v>59.67981924274546</v>
+        <v>79.02994164502967</v>
       </c>
       <c r="C28" t="n">
-        <v>-84.45146350155957</v>
+        <v>-83.60280840139063</v>
       </c>
       <c r="D28" t="n">
-        <v>211.9492340895567</v>
+        <v>225.0515150055187</v>
       </c>
       <c r="E28" t="n">
         <v>90</v>
@@ -1016,13 +1016,13 @@
         <v>45020</v>
       </c>
       <c r="B29" t="n">
-        <v>142.8034266033931</v>
+        <v>153.0355828506849</v>
       </c>
       <c r="C29" t="n">
-        <v>-24.93985926322871</v>
+        <v>-13.20421780359126</v>
       </c>
       <c r="D29" t="n">
-        <v>295.1967797920185</v>
+        <v>301.0076318039357</v>
       </c>
       <c r="E29" t="n">
         <v>110</v>
@@ -1036,13 +1036,13 @@
         <v>45027</v>
       </c>
       <c r="B30" t="n">
-        <v>274.0169850813091</v>
+        <v>283.2446030918439</v>
       </c>
       <c r="C30" t="n">
-        <v>114.0883902999185</v>
+        <v>138.2827158405728</v>
       </c>
       <c r="D30" t="n">
-        <v>439.1980372111781</v>
+        <v>441.0247150713819</v>
       </c>
       <c r="E30" t="n">
         <v>140</v>
@@ -1056,13 +1056,13 @@
         <v>45034</v>
       </c>
       <c r="B31" t="n">
-        <v>378.5244069429473</v>
+        <v>379.0943726692907</v>
       </c>
       <c r="C31" t="n">
-        <v>221.0476580983775</v>
+        <v>225.1138960279773</v>
       </c>
       <c r="D31" t="n">
-        <v>543.7874059833257</v>
+        <v>533.4601453881644</v>
       </c>
       <c r="E31" t="n">
         <v>690</v>
@@ -1076,13 +1076,13 @@
         <v>45040</v>
       </c>
       <c r="B32" t="n">
-        <v>395.5973672129049</v>
+        <v>320.1789833010197</v>
       </c>
       <c r="C32" t="n">
-        <v>240.1029962444238</v>
+        <v>155.9649202555919</v>
       </c>
       <c r="D32" t="n">
-        <v>545.8099145433076</v>
+        <v>475.0435314523732</v>
       </c>
       <c r="E32" t="n">
         <v>500</v>
@@ -1096,13 +1096,13 @@
         <v>45048</v>
       </c>
       <c r="B33" t="n">
-        <v>361.5110215646756</v>
+        <v>374.466736018797</v>
       </c>
       <c r="C33" t="n">
-        <v>201.3517306280529</v>
+        <v>225.9959401158189</v>
       </c>
       <c r="D33" t="n">
-        <v>518.8686834457984</v>
+        <v>542.6658095173281</v>
       </c>
       <c r="E33" t="n">
         <v>570</v>
@@ -1116,13 +1116,13 @@
         <v>45055</v>
       </c>
       <c r="B34" t="n">
-        <v>239.872612439515</v>
+        <v>241.8354343204132</v>
       </c>
       <c r="C34" t="n">
-        <v>82.76145930295102</v>
+        <v>85.49114921385927</v>
       </c>
       <c r="D34" t="n">
-        <v>384.0291180068675</v>
+        <v>385.5222830372026</v>
       </c>
       <c r="E34" t="n">
         <v>210</v>
@@ -1136,13 +1136,13 @@
         <v>45062</v>
       </c>
       <c r="B35" t="n">
-        <v>142.8937918567959</v>
+        <v>141.3792014497851</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.076729456594997</v>
+        <v>-9.080463831958728</v>
       </c>
       <c r="D35" t="n">
-        <v>306.2529247132115</v>
+        <v>291.4762020003578</v>
       </c>
       <c r="E35" t="n">
         <v>80</v>
@@ -1217,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4638.681536535791</v>
+        <v>5305.756609281567</v>
       </c>
       <c r="C2" t="n">
-        <v>68.10786692105245</v>
+        <v>72.84062471781503</v>
       </c>
       <c r="D2" t="n">
-        <v>62.04372994210221</v>
+        <v>59.34138218564714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6862703544205674</v>
+        <v>0.6187340468743757</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8115366954028063</v>
+        <v>0.7414836127726609</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151466583388918</v>
+        <v>1.050502668835938</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1243,25 +1243,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5925.875086008314</v>
+        <v>12692.19061940337</v>
       </c>
       <c r="C3" t="n">
-        <v>76.97970567629051</v>
+        <v>112.6596228442265</v>
       </c>
       <c r="D3" t="n">
-        <v>71.25493151184888</v>
+        <v>86.67475295845865</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6926788050511637</v>
+        <v>0.499974193347017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2375059418797155</v>
+        <v>0.3596420333979605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.709307124119829</v>
+        <v>0.7315082006204049</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1269,22 +1269,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>25506.59389071349</v>
+        <v>24863.15117248408</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7078391648747</v>
+        <v>157.6805351731281</v>
       </c>
       <c r="D4" t="n">
-        <v>114.5303199212764</v>
+        <v>113.5240416094328</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6304776844459017</v>
+        <v>0.6168907681382105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4605846033807576</v>
+        <v>0.4507321066587937</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6353319740252843</v>
+        <v>0.6132787659866631</v>
       </c>
       <c r="H4" t="n">
         <v>0.7777777777777773</v>
